--- a/Data/Tables/dlgProfil_pagAbwesenheiten_tabAnwesenheiten.xlsx
+++ b/Data/Tables/dlgProfil_pagAbwesenheiten_tabAnwesenheiten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\PythonProject1\Data\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D985AF78-B00F-4E4B-90D9-44CE5EABC6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033ED68C-0A52-4120-993E-43D452E31ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2736" yWindow="708" windowWidth="35220" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="840" yWindow="1920" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Control</t>
   </si>
@@ -58,6 +58,27 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Abwesenheit Sylvester</t>
+  </si>
+  <si>
+    <t>31.12.2025</t>
+  </si>
+  <si>
+    <t>01.01.2026</t>
+  </si>
+  <si>
+    <t>Hoch die Tassen!</t>
+  </si>
+  <si>
+    <t>xpath=//th[text()='Von']</t>
+  </si>
+  <si>
+    <t>xpath=//th[text()='Bis']</t>
+  </si>
+  <si>
+    <t>xpath=//th[text()='Kommentar']</t>
   </si>
 </sst>
 </file>
@@ -93,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -122,8 +144,8 @@
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>608680</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>540100</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>27805</xdr:rowOff>
     </xdr:to>
@@ -461,79 +483,98 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Data/Tables/dlgProfil_pagAbwesenheiten_tabAnwesenheiten.xlsx
+++ b/Data/Tables/dlgProfil_pagAbwesenheiten_tabAnwesenheiten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033ED68C-0A52-4120-993E-43D452E31ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6BB53-4AEA-4A7E-B609-9828B0173CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1920" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3072" yWindow="1116" windowWidth="37188" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Record/Selector</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Check defaults</t>
   </si>
@@ -79,13 +73,22 @@
   </si>
   <si>
     <t>xpath=//th[text()='Kommentar']</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record / Control </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +96,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,9 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -140,13 +165,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>540100</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>27805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -480,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,85 +522,95 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
